--- a/data/trans_camb/P0902-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P0902-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,23</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,59</t>
+          <t>3,73</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,16</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,72</t>
+          <t>10,51</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,97</t>
+          <t>12,12</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,69</t>
+          <t>8,81</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,42</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,29</t>
+          <t>7,92</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10,5</t>
+          <t>7,72</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 14,43</t>
+          <t>1,29; 7,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,63; 18,02</t>
+          <t>0,58; 6,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,97; 24,11</t>
+          <t>2,92; 9,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,7; 21,41</t>
+          <t>6,68; 14,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 18,63</t>
+          <t>7,96; 16,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 14,38</t>
+          <t>5,66; 11,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 16,26</t>
+          <t>4,92; 9,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,89; 14,67</t>
+          <t>5,28; 10,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,72; 16,61</t>
+          <t>5,24; 10,1</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>118,89%</t>
+          <t>58,01%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>157,65%</t>
+          <t>48,88%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>232,82%</t>
+          <t>84,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>83,61%</t>
+          <t>100,77%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>49,69%</t>
+          <t>116,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>47,74%</t>
+          <t>84,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>94,11%</t>
+          <t>82,6%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>82,81%</t>
+          <t>87,8%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>104,94%</t>
+          <t>85,6%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,63; 495,93</t>
+          <t>14,06; 116,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 599,82</t>
+          <t>6,57; 105,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,18; 825,62</t>
+          <t>30,88; 152,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,33; 226,64</t>
+          <t>51,59; 157,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,22; 191,81</t>
+          <t>67,62; 182,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 153,37</t>
+          <t>46,16; 138,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,12; 222,78</t>
+          <t>48,83; 127,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,18; 191,87</t>
+          <t>51,99; 131,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>33,42; 223,56</t>
+          <t>50,92; 127,93</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,87</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,55</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,3</t>
+          <t>8,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,14</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,37</t>
+          <t>5,91</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>6,19</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,84</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,57</t>
+          <t>2,8</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 7,77</t>
+          <t>0,89; 6,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 5,78</t>
+          <t>-1,34; 3,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 9,0</t>
+          <t>-3,96; 4,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,18; 14,58</t>
+          <t>5,14; 11,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,18; 17,57</t>
+          <t>-0,34; 6,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,95; 12,99</t>
+          <t>2,65; 8,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,46; 9,87</t>
+          <t>3,97; 8,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,12; 10,95</t>
+          <t>-0,25; 4,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,91; 10,23</t>
+          <t>-2,4; 5,49</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>48,74%</t>
+          <t>45,55%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>31,74%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>69,95%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>105,84%</t>
+          <t>63,69%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>135,06%</t>
+          <t>22,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>96,33%</t>
+          <t>43,67%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>80,14%</t>
+          <t>57,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>88,79%</t>
+          <t>18,34%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>85,75%</t>
+          <t>25,81%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,96; 121,16</t>
+          <t>9,95; 93,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 89,21</t>
+          <t>-15,15; 52,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,23; 136,75</t>
+          <t>-42,57; 58,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>53,39; 174,38</t>
+          <t>33,4; 99,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>78,88; 214,61</t>
+          <t>-2,39; 53,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,19; 160,04</t>
+          <t>17,56; 74,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>43,26; 130,4</t>
+          <t>32,16; 85,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>50,79; 141,2</t>
+          <t>-2,09; 41,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>49,63; 135,89</t>
+          <t>-17,75; 54,62</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,72</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,62</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,87</t>
+          <t>-2,62</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>6,19</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,43</t>
+          <t>1,24</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 6,42</t>
+          <t>-3,19; 2,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 3,69</t>
+          <t>-4,65; 1,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,12; 6,03</t>
+          <t>1,53; 8,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,14; 11,96</t>
+          <t>-3,19; 4,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 6,45</t>
+          <t>-4,38; 3,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,65; 8,87</t>
+          <t>-10,09; 2,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,97; 8,41</t>
+          <t>-2,09; 3,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 4,08</t>
+          <t>-3,69; 1,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,17; 6,44</t>
+          <t>-3,97; 4,5</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>45,55%</t>
+          <t>-1,68%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>-18,36%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>35,84%</t>
+          <t>57,51%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>63,69%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>-3,34%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>43,36%</t>
+          <t>-15,6%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>57,06%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>-8,07%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>40,78%</t>
+          <t>9,64%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,95; 93,39</t>
+          <t>-31,34; 41,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-15,15; 52,08</t>
+          <t>-43,65; 20,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,44; 82,82</t>
+          <t>13,99; 118,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>33,4; 99,1</t>
+          <t>-17,35; 31,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 53,48</t>
+          <t>-22,82; 24,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>17,25; 73,72</t>
+          <t>-56,54; 17,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>32,16; 85,35</t>
+          <t>-14,63; 26,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 41,45</t>
+          <t>-26,11; 15,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,51; 66,27</t>
+          <t>-28,41; 37,41</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,5</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>3,6</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 2,97</t>
+          <t>0,31; 5,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 1,35</t>
+          <t>-1,09; 4,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,1; 9,0</t>
+          <t>1,73; 7,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 4,6</t>
+          <t>-1,23; 5,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 3,56</t>
+          <t>-3,54; 3,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 3,87</t>
+          <t>-1,9; 6,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 3,08</t>
+          <t>0,3; 4,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 1,7</t>
+          <t>-1,49; 2,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 5,67</t>
+          <t>1,4; 5,92</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,68%</t>
+          <t>37,46%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-18,36%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>62,1%</t>
+          <t>53,28%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>12,4%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-3,34%</t>
+          <t>-0,83%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-1,26%</t>
+          <t>16,01%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>20,05%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-8,07%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>21,27%</t>
+          <t>28,26%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-31,34; 41,15</t>
+          <t>1,28; 83,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-43,65; 20,59</t>
+          <t>-12,62; 62,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>17,98; 125,1</t>
+          <t>19,1; 103,22</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-17,35; 31,24</t>
+          <t>-6,33; 34,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-22,82; 24,69</t>
+          <t>-18,94; 22,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-35,38; 25,05</t>
+          <t>-9,7; 40,9</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-14,63; 26,8</t>
+          <t>2,07; 40,17</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-26,11; 15,35</t>
+          <t>-11,1; 24,59</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 48,57</t>
+          <t>10,57; 52,12</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,51</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>5,37</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>4,52</t>
+          <t>3,64</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,31; 5,79</t>
+          <t>1,44; 4,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 4,2</t>
+          <t>-0,26; 2,39</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,93; 7,31</t>
+          <t>0,83; 5,29</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 5,2</t>
+          <t>3,38; 7,02</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 3,6</t>
+          <t>1,27; 4,98</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,86; 7,65</t>
+          <t>0,17; 5,5</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,3; 4,72</t>
+          <t>2,93; 5,32</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 2,93</t>
+          <t>1,01; 3,37</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,49; 6,71</t>
+          <t>1,46; 4,98</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>37,46%</t>
+          <t>34,65%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>19,14%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>55,86%</t>
+          <t>45,13%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>36,77%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-0,83%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>24,84%</t>
+          <t>24,08%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>36,14%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>35,53%</t>
+          <t>31,84%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1,28; 83,35</t>
+          <t>15,92; 55,59</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-12,62; 62,91</t>
+          <t>-2,93; 31,85</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>21,07; 105,72</t>
+          <t>10,32; 69,38</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 34,78</t>
+          <t>21,89; 51,02</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-18,94; 22,78</t>
+          <t>7,98; 36,11</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>4,56; 49,23</t>
+          <t>2,18; 40,14</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>2,07; 40,17</t>
+          <t>24,18; 48,43</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 24,59</t>
+          <t>7,97; 30,45</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>18,3; 57,49</t>
+          <t>12,8; 45,81</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>2,83</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>4,71</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>5,37</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>3,1</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>4,67</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>4,13</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>2,13</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>4,83</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>1,44; 4,26</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-0,26; 2,39</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>3,16; 6,16</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>3,38; 7,02</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>1,27; 4,98</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>2,44; 6,47</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>2,93; 5,32</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>1,01; 3,37</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>3,39; 5,97</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>34,65%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>13,28%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>57,76%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>36,77%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>21,19%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>31,98%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>36,14%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>18,64%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>42,26%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>15,92; 55,59</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-2,93; 31,85</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>34,79; 83,17</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>21,89; 51,02</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>7,98; 36,11</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>16,78; 47,11</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>24,18; 48,43</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>7,97; 30,45</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>28,3; 54,87</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P0902-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P0902-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 7,45</t>
+          <t>1,2; 7,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 6,78</t>
+          <t>0,6; 6,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,92; 9,64</t>
+          <t>3,18; 9,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,68; 14,36</t>
+          <t>6,55; 14,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,96; 16,11</t>
+          <t>7,72; 15,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,66; 11,89</t>
+          <t>5,64; 11,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,92; 9,84</t>
+          <t>4,96; 10,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,28; 10,5</t>
+          <t>5,63; 10,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,24; 10,1</t>
+          <t>5,58; 10,41</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,06; 116,36</t>
+          <t>13,75; 122,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,57; 105,58</t>
+          <t>5,18; 107,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,88; 152,56</t>
+          <t>34,48; 151,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>51,59; 157,34</t>
+          <t>52,61; 158,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>67,62; 182,86</t>
+          <t>66,82; 178,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>46,16; 138,4</t>
+          <t>45,11; 134,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>48,83; 127,98</t>
+          <t>49,75; 124,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>51,99; 131,63</t>
+          <t>56,04; 130,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>50,92; 127,93</t>
+          <t>54,6; 130,49</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 6,42</t>
+          <t>1,3; 6,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 3,69</t>
+          <t>-1,76; 3,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 4,34</t>
+          <t>-4,09; 4,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,14; 11,96</t>
+          <t>5,3; 11,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 6,45</t>
+          <t>-0,29; 6,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 8,88</t>
+          <t>2,76; 9,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,97; 8,41</t>
+          <t>4,02; 8,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 4,08</t>
+          <t>0,03; 4,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 5,49</t>
+          <t>-1,82; 5,46</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,95; 93,39</t>
+          <t>14,1; 96,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,15; 52,08</t>
+          <t>-18,4; 47,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-42,57; 58,06</t>
+          <t>-42,29; 55,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>33,4; 99,1</t>
+          <t>35,94; 102,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 53,48</t>
+          <t>-2,3; 53,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,56; 74,41</t>
+          <t>17,74; 76,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,16; 85,35</t>
+          <t>34,24; 86,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 41,45</t>
+          <t>0,11; 41,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 54,62</t>
+          <t>-14,39; 53,4</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 2,97</t>
+          <t>-3,22; 3,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 1,35</t>
+          <t>-4,54; 1,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,53; 8,52</t>
+          <t>1,7; 8,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 4,6</t>
+          <t>-3,3; 4,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 3,56</t>
+          <t>-4,33; 3,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 2,81</t>
+          <t>-10,84; 2,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 3,08</t>
+          <t>-2,42; 2,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 1,7</t>
+          <t>-3,44; 1,36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 4,5</t>
+          <t>-4,34; 4,35</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-31,34; 41,15</t>
+          <t>-31,23; 46,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-43,65; 20,59</t>
+          <t>-44,53; 18,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,99; 118,88</t>
+          <t>15,23; 114,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-17,35; 31,24</t>
+          <t>-17,47; 31,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-22,82; 24,69</t>
+          <t>-23,38; 23,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-56,54; 17,29</t>
+          <t>-57,14; 15,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-14,63; 26,8</t>
+          <t>-17,27; 25,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-26,11; 15,35</t>
+          <t>-24,28; 11,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-28,41; 37,41</t>
+          <t>-29,51; 36,83</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,31; 5,79</t>
+          <t>0,51; 5,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 4,2</t>
+          <t>-1,27; 4,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,73; 7,1</t>
+          <t>1,63; 6,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 5,2</t>
+          <t>-1,17; 5,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 3,6</t>
+          <t>-3,43; 3,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 6,38</t>
+          <t>-1,8; 6,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,3; 4,72</t>
+          <t>0,36; 4,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 2,93</t>
+          <t>-1,46; 3,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,4; 5,92</t>
+          <t>0,92; 5,74</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,28; 83,35</t>
+          <t>4,74; 82,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,62; 62,91</t>
+          <t>-13,41; 58,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>19,1; 103,22</t>
+          <t>17,46; 97,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 34,78</t>
+          <t>-5,99; 36,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-18,94; 22,78</t>
+          <t>-18,71; 22,12</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 40,9</t>
+          <t>-9,79; 39,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,07; 40,17</t>
+          <t>3,42; 40,54</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 24,59</t>
+          <t>-10,51; 25,11</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>10,57; 52,12</t>
+          <t>7,84; 49,92</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,26</t>
+          <t>1,47; 4,35</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 2,39</t>
+          <t>-0,28; 2,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,83; 5,29</t>
+          <t>1,2; 5,4</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,38; 7,02</t>
+          <t>3,68; 7,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,98</t>
+          <t>1,43; 4,93</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,17; 5,5</t>
+          <t>0,03; 5,58</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,93; 5,32</t>
+          <t>2,97; 5,33</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,37</t>
+          <t>0,93; 3,26</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,46; 4,98</t>
+          <t>1,62; 5,05</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>15,92; 55,59</t>
+          <t>16,59; 58,76</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 31,85</t>
+          <t>-3,37; 32,78</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>10,32; 69,38</t>
+          <t>15,05; 71,21</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>21,89; 51,02</t>
+          <t>23,56; 52,01</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>7,98; 36,11</t>
+          <t>9,47; 35,94</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>2,18; 40,14</t>
+          <t>0,66; 39,64</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>24,18; 48,43</t>
+          <t>24,65; 48,13</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>7,97; 30,45</t>
+          <t>7,96; 30,04</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>12,8; 45,81</t>
+          <t>13,69; 45,96</t>
         </is>
       </c>
     </row>
